--- a/data/ch07/webpage_data/네이버_뮤직_Top100_2019년_12월.xlsx
+++ b/data/ch07/webpage_data/네이버_뮤직_Top100_2019년_12월.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPyExcel\data\ch07\webpage_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D7740-A0F0-4EA0-AC3B-0B5024A72AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1주" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="4주" sheetId="4" r:id="rId4"/>
     <sheet name="5주" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -668,12 +662,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -681,15 +675,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -735,23 +722,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,27 +804,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,24 +838,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1070,19 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.875" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1104,7 +1042,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1115,7 +1053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1126,7 +1064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1137,7 +1075,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1148,7 +1086,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1159,7 +1097,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1170,7 +1108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1181,7 +1119,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1192,7 +1130,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1203,7 +1141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1214,7 +1152,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1225,7 +1163,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1236,7 +1174,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1247,7 +1185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1258,7 +1196,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1269,7 +1207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1280,7 +1218,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1291,7 +1229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1302,7 +1240,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1313,7 +1251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1324,7 +1262,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1335,7 +1273,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1346,7 +1284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1357,7 +1295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1368,7 +1306,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1379,7 +1317,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1390,7 +1328,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1401,7 +1339,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1412,7 +1350,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1423,7 +1361,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1434,7 +1372,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1445,7 +1383,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1456,7 +1394,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1467,7 +1405,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1478,7 +1416,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1489,7 +1427,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1500,7 +1438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1511,7 +1449,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1522,7 +1460,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1533,7 +1471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1544,7 +1482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1555,7 +1493,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1566,7 +1504,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1577,7 +1515,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1588,7 +1526,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1599,7 +1537,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1610,7 +1548,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1621,7 +1559,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1632,7 +1570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1643,7 +1581,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1654,7 +1592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1665,7 +1603,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1676,7 +1614,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1687,7 +1625,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1698,7 +1636,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1709,7 +1647,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1720,7 +1658,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1731,7 +1669,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1742,7 +1680,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1753,7 +1691,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1764,7 +1702,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1775,7 +1713,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1786,7 +1724,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1797,7 +1735,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1808,7 +1746,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1819,7 +1757,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1830,7 +1768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1841,7 +1779,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1852,7 +1790,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1863,7 +1801,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1874,7 +1812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1885,7 +1823,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1896,7 +1834,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1907,7 +1845,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1918,7 +1856,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1929,7 +1867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1940,7 +1878,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1951,7 +1889,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1962,7 +1900,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1973,7 +1911,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1984,7 +1922,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1995,7 +1933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2006,7 +1944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2017,7 +1955,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2028,7 +1966,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2039,7 +1977,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2050,7 +1988,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2061,7 +1999,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2072,7 +2010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2083,7 +2021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2094,7 +2032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2105,7 +2043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2116,7 +2054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2127,7 +2065,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2138,7 +2076,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2149,7 +2087,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2160,7 +2098,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2171,7 +2109,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2182,7 +2120,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2194,20 +2132,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2229,7 +2166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2240,7 +2177,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2251,7 +2188,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2262,7 +2199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2273,7 +2210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2284,7 +2221,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2295,7 +2232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2306,7 +2243,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2317,7 +2254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2328,7 +2265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2339,7 +2276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2350,7 +2287,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2361,7 +2298,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2372,7 +2309,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2383,7 +2320,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2394,7 +2331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2405,7 +2342,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2416,7 +2353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2427,7 +2364,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2438,7 +2375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2449,7 +2386,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2460,7 +2397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2471,7 +2408,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2482,7 +2419,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2493,7 +2430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2504,7 +2441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2515,7 +2452,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2526,7 +2463,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2537,7 +2474,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2548,7 +2485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2559,7 +2496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2570,7 +2507,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2581,7 +2518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2592,7 +2529,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2603,7 +2540,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2614,7 +2551,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2625,7 +2562,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2636,7 +2573,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2647,7 +2584,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2658,7 +2595,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2669,7 +2606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2680,7 +2617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2691,7 +2628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2702,7 +2639,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2713,7 +2650,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2724,7 +2661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2735,7 +2672,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2746,7 +2683,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2757,7 +2694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2768,7 +2705,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2779,7 +2716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2790,7 +2727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2801,7 +2738,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2812,7 +2749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2823,7 +2760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2834,7 +2771,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2845,7 +2782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2856,7 +2793,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2867,7 +2804,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2878,7 +2815,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2889,7 +2826,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2900,7 +2837,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2911,7 +2848,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2922,7 +2859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2933,7 +2870,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2944,7 +2881,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2955,7 +2892,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2966,7 +2903,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2977,7 +2914,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2988,7 +2925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2999,7 +2936,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3010,7 +2947,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3021,7 +2958,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3032,7 +2969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3043,7 +2980,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3054,7 +2991,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3065,7 +3002,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3076,7 +3013,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3087,7 +3024,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3098,7 +3035,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3109,7 +3046,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3120,7 +3057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3131,7 +3068,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3142,7 +3079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3153,7 +3090,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3164,7 +3101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3175,7 +3112,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3186,7 +3123,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3197,7 +3134,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3208,7 +3145,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3219,7 +3156,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3230,7 +3167,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3241,7 +3178,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3252,7 +3189,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3263,7 +3200,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3274,7 +3211,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3285,7 +3222,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3296,7 +3233,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3307,7 +3244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3319,20 +3256,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3343,7 +3279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3354,7 +3290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3365,7 +3301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3376,7 +3312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3387,7 +3323,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3398,7 +3334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3409,7 +3345,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3420,7 +3356,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3431,7 +3367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3442,7 +3378,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3453,7 +3389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3464,7 +3400,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3475,7 +3411,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3486,7 +3422,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3497,7 +3433,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3508,7 +3444,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3519,7 +3455,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3530,7 +3466,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3541,7 +3477,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3552,7 +3488,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3563,7 +3499,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3574,7 +3510,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3585,7 +3521,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3596,7 +3532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3607,7 +3543,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3618,7 +3554,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3629,7 +3565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3640,7 +3576,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3651,7 +3587,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3662,7 +3598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3673,7 +3609,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3684,7 +3620,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3695,7 +3631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3706,7 +3642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3717,7 +3653,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3728,7 +3664,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3739,7 +3675,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3750,7 +3686,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3761,7 +3697,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3772,7 +3708,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3783,7 +3719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3794,7 +3730,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3805,7 +3741,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3816,7 +3752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3827,7 +3763,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3838,7 +3774,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3849,7 +3785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3860,7 +3796,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3871,7 +3807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3882,7 +3818,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3893,7 +3829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3904,7 +3840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3915,7 +3851,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3926,7 +3862,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3937,7 +3873,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3948,7 +3884,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3959,7 +3895,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3970,7 +3906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3981,7 +3917,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3992,7 +3928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4003,7 +3939,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4014,7 +3950,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4025,7 +3961,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4036,7 +3972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4047,7 +3983,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4058,7 +3994,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4069,7 +4005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4080,7 +4016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4091,7 +4027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4102,7 +4038,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4113,7 +4049,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4124,7 +4060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4135,7 +4071,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4146,7 +4082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4157,7 +4093,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4168,7 +4104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4179,7 +4115,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4190,7 +4126,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4201,7 +4137,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4212,7 +4148,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4223,7 +4159,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4234,7 +4170,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4245,7 +4181,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4256,7 +4192,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4267,7 +4203,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4278,7 +4214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4289,7 +4225,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4300,7 +4236,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4311,7 +4247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4322,7 +4258,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4333,7 +4269,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4344,7 +4280,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4355,7 +4291,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4366,7 +4302,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4377,7 +4313,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4388,7 +4324,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4399,7 +4335,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4410,7 +4346,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4421,7 +4357,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4432,7 +4368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4444,20 +4380,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +4403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4479,7 +4414,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4490,7 +4425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4501,7 +4436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4512,7 +4447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4523,7 +4458,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4534,7 +4469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4545,7 +4480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4556,7 +4491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4567,7 +4502,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4578,7 +4513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4589,7 +4524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4600,7 +4535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4611,7 +4546,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4622,7 +4557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4633,7 +4568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4644,7 +4579,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4655,7 +4590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4666,7 +4601,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4677,7 +4612,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4688,7 +4623,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4699,7 +4634,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4710,7 +4645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4721,7 +4656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4732,7 +4667,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4743,7 +4678,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4754,7 +4689,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4765,7 +4700,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4776,7 +4711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4787,7 +4722,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4798,7 +4733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4809,7 +4744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4820,7 +4755,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4831,7 +4766,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4842,7 +4777,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4853,7 +4788,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4864,7 +4799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4875,7 +4810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4886,7 +4821,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4897,7 +4832,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4908,7 +4843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4919,7 +4854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4930,7 +4865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4941,7 +4876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4952,7 +4887,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4963,7 +4898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4974,7 +4909,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4985,7 +4920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4996,7 +4931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5007,7 +4942,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5018,7 +4953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5029,7 +4964,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5040,7 +4975,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5051,7 +4986,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5062,7 +4997,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5073,7 +5008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5084,7 +5019,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5095,7 +5030,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5106,7 +5041,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5117,7 +5052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5128,7 +5063,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5139,7 +5074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5150,7 +5085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5161,7 +5096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5172,7 +5107,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5183,7 +5118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5194,7 +5129,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5205,7 +5140,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5216,7 +5151,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5227,7 +5162,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5238,7 +5173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5249,7 +5184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5260,7 +5195,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5271,7 +5206,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5282,7 +5217,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5293,7 +5228,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5304,7 +5239,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5315,7 +5250,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5326,7 +5261,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5337,7 +5272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5348,7 +5283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5359,7 +5294,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5370,7 +5305,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5381,7 +5316,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5392,7 +5327,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5403,7 +5338,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5414,7 +5349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5425,7 +5360,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5436,7 +5371,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5447,7 +5382,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5458,7 +5393,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5469,7 +5404,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5480,7 +5415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5491,7 +5426,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5502,7 +5437,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5513,7 +5448,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5524,7 +5459,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5535,7 +5470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5546,7 +5481,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5557,7 +5492,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5569,27 +5504,19 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5600,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5611,7 +5538,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5622,7 +5549,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5633,7 +5560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5644,7 +5571,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5655,7 +5582,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5666,7 +5593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5677,7 +5604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5688,7 +5615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5699,7 +5626,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5710,7 +5637,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5721,7 +5648,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5732,7 +5659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5743,7 +5670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5754,7 +5681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5765,7 +5692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5776,7 +5703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5787,7 +5714,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5798,7 +5725,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5809,7 +5736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5820,7 +5747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5831,7 +5758,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5842,7 +5769,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5853,7 +5780,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5864,7 +5791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5875,7 +5802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5886,7 +5813,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5897,7 +5824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5908,7 +5835,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5919,7 +5846,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5930,7 +5857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5941,7 +5868,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5952,7 +5879,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5963,7 +5890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5974,7 +5901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5985,7 +5912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5996,7 +5923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6007,7 +5934,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6018,7 +5945,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6029,7 +5956,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6040,7 +5967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6051,7 +5978,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6062,7 +5989,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6073,7 +6000,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6084,7 +6011,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6095,7 +6022,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6106,7 +6033,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6117,7 +6044,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6128,7 +6055,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6139,7 +6066,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6150,7 +6077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6161,7 +6088,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6172,7 +6099,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6183,7 +6110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6194,7 +6121,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6205,7 +6132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6216,7 +6143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6227,7 +6154,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6238,7 +6165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6249,7 +6176,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6260,7 +6187,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6271,7 +6198,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6282,7 +6209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6293,7 +6220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6304,7 +6231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6315,7 +6242,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6326,7 +6253,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6337,7 +6264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6348,7 +6275,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6359,7 +6286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6370,7 +6297,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6381,7 +6308,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6392,7 +6319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6403,7 +6330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6414,7 +6341,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6425,7 +6352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6436,7 +6363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6447,7 +6374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6458,7 +6385,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6469,7 +6396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6480,7 +6407,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6491,7 +6418,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6502,7 +6429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6513,7 +6440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6524,7 +6451,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6535,7 +6462,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6546,7 +6473,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6557,7 +6484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6568,7 +6495,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6579,7 +6506,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6590,7 +6517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6601,7 +6528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6612,7 +6539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6623,7 +6550,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6634,7 +6561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6645,7 +6572,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6656,7 +6583,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6667,7 +6594,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6678,7 +6605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6689,7 +6616,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6701,7 +6628,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>